--- a/data_preprocessing/tiefenerhebung/TE_data/DB_BE_q25_1_imputiert_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/DB_BE_q25_1_imputiert_Auszug.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Masterarbeit\ABGABE\Dynamic ISO Building Simulator\iso_simulator\auxiliary\TE_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Technological University Dublin\GitHub\DIBS---Dynamic-ISO-Building-Simulator\data_preprocessing\tiefenerhebung\TE_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE885E82-9B2A-471D-B7CD-89E6130F321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>scr_gebaeude_id</t>
   </si>
@@ -72,63 +73,6 @@
     <t>BW489</t>
   </si>
   <si>
-    <t>HH57</t>
-  </si>
-  <si>
-    <t>MV30</t>
-  </si>
-  <si>
-    <t>MV44</t>
-  </si>
-  <si>
-    <t>MV68</t>
-  </si>
-  <si>
-    <t>NI80</t>
-  </si>
-  <si>
-    <t>NI58</t>
-  </si>
-  <si>
-    <t>NI57</t>
-  </si>
-  <si>
-    <t>NI43</t>
-  </si>
-  <si>
-    <t>NI64</t>
-  </si>
-  <si>
-    <t>NI92</t>
-  </si>
-  <si>
-    <t>NI156</t>
-  </si>
-  <si>
-    <t>NI157</t>
-  </si>
-  <si>
-    <t>NI169</t>
-  </si>
-  <si>
-    <t>RP252</t>
-  </si>
-  <si>
-    <t>SH196</t>
-  </si>
-  <si>
-    <t>SL25</t>
-  </si>
-  <si>
-    <t>SL84</t>
-  </si>
-  <si>
-    <t>SN240</t>
-  </si>
-  <si>
-    <t>SN275</t>
-  </si>
-  <si>
     <t>AB123456_0_02</t>
   </si>
   <si>
@@ -187,102 +131,12 @@
   </si>
   <si>
     <t>AB123456_0_20</t>
-  </si>
-  <si>
-    <t>AB123456_0_21</t>
-  </si>
-  <si>
-    <t>AB123456_0_22</t>
-  </si>
-  <si>
-    <t>AB123456_0_23</t>
-  </si>
-  <si>
-    <t>AB123456_0_24</t>
-  </si>
-  <si>
-    <t>AB123456_0_25</t>
-  </si>
-  <si>
-    <t>AB123456_0_26</t>
-  </si>
-  <si>
-    <t>AB123456_0_27</t>
-  </si>
-  <si>
-    <t>AB123456_0_28</t>
-  </si>
-  <si>
-    <t>AB123456_0_29</t>
-  </si>
-  <si>
-    <t>AB123456_0_30</t>
-  </si>
-  <si>
-    <t>AB123456_0_31</t>
-  </si>
-  <si>
-    <t>AB123456_0_32</t>
-  </si>
-  <si>
-    <t>AB123456_0_33</t>
-  </si>
-  <si>
-    <t>AB123456_0_34</t>
-  </si>
-  <si>
-    <t>AB123456_0_35</t>
-  </si>
-  <si>
-    <t>AB123456_0_36</t>
-  </si>
-  <si>
-    <t>AB123456_0_37</t>
-  </si>
-  <si>
-    <t>AB123456_0_38</t>
-  </si>
-  <si>
-    <t>AB123456_0_39</t>
-  </si>
-  <si>
-    <t>AB123456_0_40</t>
-  </si>
-  <si>
-    <t>AB123456_0_41</t>
-  </si>
-  <si>
-    <t>AB123456_0_42</t>
-  </si>
-  <si>
-    <t>AB123456_0_43</t>
-  </si>
-  <si>
-    <t>AB123456_0_44</t>
-  </si>
-  <si>
-    <t>AB123456_0_45</t>
-  </si>
-  <si>
-    <t>AB123456_0_46</t>
-  </si>
-  <si>
-    <t>AB123456_0_47</t>
-  </si>
-  <si>
-    <t>AB123456_0_48</t>
-  </si>
-  <si>
-    <t>AB123456_0_49</t>
-  </si>
-  <si>
-    <t>AB123456_0_50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,6 +287,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -468,6 +339,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,19 +531,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,9 +563,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -695,9 +583,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -715,9 +603,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -735,9 +623,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -755,9 +643,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -775,9 +663,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -795,9 +683,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -815,9 +703,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -835,9 +723,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -855,9 +743,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -875,9 +763,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -895,9 +783,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -915,9 +803,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -935,9 +823,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -955,9 +843,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -975,9 +863,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -995,9 +883,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1015,9 +903,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1035,9 +923,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1055,9 +943,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1072,606 +960,6 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>1532.0976539999999</v>
-      </c>
-      <c r="E22">
-        <v>1.03</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>250</v>
-      </c>
-      <c r="D23">
-        <v>1850.160856</v>
-      </c>
-      <c r="E23">
-        <v>5.05</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>75</v>
-      </c>
-      <c r="D24">
-        <v>7656.4683199999999</v>
-      </c>
-      <c r="E24">
-        <v>3.02</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>1609.7501569999999</v>
-      </c>
-      <c r="E25">
-        <v>7.01</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>2437.7761559999999</v>
-      </c>
-      <c r="E26">
-        <v>6.02</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>1298.505085</v>
-      </c>
-      <c r="E27">
-        <v>6.1</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>400</v>
-      </c>
-      <c r="D28">
-        <v>5075.9865179999997</v>
-      </c>
-      <c r="E28">
-        <v>4.08</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29">
-        <v>65</v>
-      </c>
-      <c r="D29">
-        <v>2505.5463679999998</v>
-      </c>
-      <c r="E29">
-        <v>4.03</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30">
-        <v>104</v>
-      </c>
-      <c r="D30">
-        <v>3158.6311000000001</v>
-      </c>
-      <c r="E30">
-        <v>4.03</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>400.25578899999999</v>
-      </c>
-      <c r="E31">
-        <v>6.1</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>277</v>
-      </c>
-      <c r="D32">
-        <v>2137.985475</v>
-      </c>
-      <c r="E32">
-        <v>5.03</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>200</v>
-      </c>
-      <c r="D33">
-        <v>282.13605000000001</v>
-      </c>
-      <c r="E33">
-        <v>5.03</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34">
-        <v>55</v>
-      </c>
-      <c r="D34">
-        <v>3723.2698610000002</v>
-      </c>
-      <c r="E34">
-        <v>1.05</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>110.27482500000001</v>
-      </c>
-      <c r="E35">
-        <v>7.08</v>
-      </c>
-      <c r="F35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <v>519.32941629999993</v>
-      </c>
-      <c r="E36">
-        <v>8.07</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>87.473722499999994</v>
-      </c>
-      <c r="E37">
-        <v>7.01</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38">
-        <v>70</v>
-      </c>
-      <c r="D38">
-        <v>393.83629930000001</v>
-      </c>
-      <c r="E38">
-        <v>8.07</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39">
-        <v>120</v>
-      </c>
-      <c r="D39">
-        <v>672.93481329999997</v>
-      </c>
-      <c r="E39">
-        <v>6.03</v>
-      </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
-      </c>
-      <c r="D40">
-        <v>1632.524932</v>
-      </c>
-      <c r="E40">
-        <v>6.04</v>
-      </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <v>3238.1181150000002</v>
-      </c>
-      <c r="E41">
-        <v>6.14</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42">
-        <v>1000</v>
-      </c>
-      <c r="D42">
-        <v>18996.671859999999</v>
-      </c>
-      <c r="E42">
-        <v>2.02</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43">
-        <v>300</v>
-      </c>
-      <c r="D43">
-        <v>7023.2553449999996</v>
-      </c>
-      <c r="E43">
-        <v>5.01</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44">
-        <v>261</v>
-      </c>
-      <c r="D44">
-        <v>1628.3839290000001</v>
-      </c>
-      <c r="E44">
-        <v>5.03</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45">
-        <v>252</v>
-      </c>
-      <c r="D45">
-        <v>1332.3472489999999</v>
-      </c>
-      <c r="E45">
-        <v>5.03</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46">
-        <v>25</v>
-      </c>
-      <c r="D46">
-        <v>2047.8747100000001</v>
-      </c>
-      <c r="E46">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>2050.6433489999999</v>
-      </c>
-      <c r="E47">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48">
-        <v>120</v>
-      </c>
-      <c r="D48">
-        <v>7086.6225530000002</v>
-      </c>
-      <c r="E48">
-        <v>8.02</v>
-      </c>
-      <c r="F48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>543.11005299999999</v>
-      </c>
-      <c r="E49">
-        <v>1.02</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50">
-        <v>250</v>
-      </c>
-      <c r="D50">
-        <v>11272.311320000001</v>
-      </c>
-      <c r="E50">
-        <v>1.02</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51">
-        <v>120</v>
-      </c>
-      <c r="D51">
-        <v>1393.288994</v>
-      </c>
-      <c r="E51">
-        <v>4.01</v>
-      </c>
-      <c r="F51">
         <v>4</v>
       </c>
     </row>

--- a/data_preprocessing/tiefenerhebung/TE_data/DB_BE_q25_1_imputiert_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/DB_BE_q25_1_imputiert_Auszug.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Technological University Dublin\GitHub\DIBS---Dynamic-ISO-Building-Simulator\data_preprocessing\tiefenerhebung\TE_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/DIBS---Dynamic-ISO-Building-Simulator/data_preprocessing/tiefenerhebung/TE_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE885E82-9B2A-471D-B7CD-89E6130F321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CE885E82-9B2A-471D-B7CD-89E6130F321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CFE55A1-30C3-4C5C-A5E1-1F23FD7F95C2}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>scr_gebaeude_id</t>
   </si>
@@ -40,39 +40,6 @@
     <t>HK_Geb</t>
   </si>
   <si>
-    <t>BB276</t>
-  </si>
-  <si>
-    <t>BB83</t>
-  </si>
-  <si>
-    <t>BB141</t>
-  </si>
-  <si>
-    <t>BB186</t>
-  </si>
-  <si>
-    <t>BB217</t>
-  </si>
-  <si>
-    <t>BB194</t>
-  </si>
-  <si>
-    <t>BB193</t>
-  </si>
-  <si>
-    <t>BW785</t>
-  </si>
-  <si>
-    <t>BW781</t>
-  </si>
-  <si>
-    <t>BW431</t>
-  </si>
-  <si>
-    <t>BW489</t>
-  </si>
-  <si>
     <t>AB123456_0_02</t>
   </si>
   <si>
@@ -104,33 +71,6 @@
   </si>
   <si>
     <t>AB123456_0_11</t>
-  </si>
-  <si>
-    <t>AB123456_0_12</t>
-  </si>
-  <si>
-    <t>AB123456_0_13</t>
-  </si>
-  <si>
-    <t>AB123456_0_14</t>
-  </si>
-  <si>
-    <t>AB123456_0_15</t>
-  </si>
-  <si>
-    <t>AB123456_0_16</t>
-  </si>
-  <si>
-    <t>AB123456_0_17</t>
-  </si>
-  <si>
-    <t>AB123456_0_18</t>
-  </si>
-  <si>
-    <t>AB123456_0_19</t>
-  </si>
-  <si>
-    <t>AB123456_0_20</t>
   </si>
 </sst>
 </file>
@@ -532,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD51"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,10 +505,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>300</v>
@@ -585,10 +525,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -605,10 +545,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>260</v>
@@ -625,10 +565,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -645,10 +585,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -665,10 +605,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>450</v>
@@ -685,10 +625,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8">
         <v>573</v>
@@ -705,10 +645,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9">
         <v>254</v>
@@ -725,10 +665,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>291</v>
@@ -745,10 +685,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11">
         <v>414</v>
@@ -765,10 +705,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12">
         <v>90</v>
@@ -781,186 +721,6 @@
       </c>
       <c r="F12">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>892</v>
-      </c>
-      <c r="D13">
-        <v>24582.384399999999</v>
-      </c>
-      <c r="E13">
-        <v>4.05</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>1533.753868</v>
-      </c>
-      <c r="E14">
-        <v>1.02</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>80</v>
-      </c>
-      <c r="D15">
-        <v>6340.3163520000007</v>
-      </c>
-      <c r="E15">
-        <v>1.02</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>226</v>
-      </c>
-      <c r="D16">
-        <v>1795.081154</v>
-      </c>
-      <c r="E16">
-        <v>9.02</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>512</v>
-      </c>
-      <c r="D17">
-        <v>17079.796149999998</v>
-      </c>
-      <c r="E17">
-        <v>1.02</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>461</v>
-      </c>
-      <c r="D18">
-        <v>10477.348120000001</v>
-      </c>
-      <c r="E18">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>256</v>
-      </c>
-      <c r="D19">
-        <v>1462.5350269999999</v>
-      </c>
-      <c r="E19">
-        <v>5.01</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>160</v>
-      </c>
-      <c r="D20">
-        <v>1524.709488</v>
-      </c>
-      <c r="E20">
-        <v>1.03</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>70</v>
-      </c>
-      <c r="D21">
-        <v>462.881259</v>
-      </c>
-      <c r="E21">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data_preprocessing/tiefenerhebung/TE_data/DB_BE_q25_1_imputiert_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/DB_BE_q25_1_imputiert_Auszug.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/DIBS---Dynamic-ISO-Building-Simulator/data_preprocessing/tiefenerhebung/TE_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TE_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CE885E82-9B2A-471D-B7CD-89E6130F321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CFE55A1-30C3-4C5C-A5E1-1F23FD7F95C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090699BE-5314-4BB9-8421-815403CC0B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32175" yWindow="4125" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>scr_gebaeude_id</t>
   </si>
@@ -34,10 +34,94 @@
     <t>bgf</t>
   </si>
   <si>
-    <t>UK_Geb</t>
-  </si>
-  <si>
-    <t>HK_Geb</t>
+    <t>BB276</t>
+  </si>
+  <si>
+    <t>BB83</t>
+  </si>
+  <si>
+    <t>BB141</t>
+  </si>
+  <si>
+    <t>BB186</t>
+  </si>
+  <si>
+    <t>BB217</t>
+  </si>
+  <si>
+    <t>BB194</t>
+  </si>
+  <si>
+    <t>BB193</t>
+  </si>
+  <si>
+    <t>BW785</t>
+  </si>
+  <si>
+    <t>BW781</t>
+  </si>
+  <si>
+    <t>BW431</t>
+  </si>
+  <si>
+    <t>BW489</t>
+  </si>
+  <si>
+    <t>HH57</t>
+  </si>
+  <si>
+    <t>MV30</t>
+  </si>
+  <si>
+    <t>MV44</t>
+  </si>
+  <si>
+    <t>MV68</t>
+  </si>
+  <si>
+    <t>NI80</t>
+  </si>
+  <si>
+    <t>NI58</t>
+  </si>
+  <si>
+    <t>NI57</t>
+  </si>
+  <si>
+    <t>NI43</t>
+  </si>
+  <si>
+    <t>NI64</t>
+  </si>
+  <si>
+    <t>NI92</t>
+  </si>
+  <si>
+    <t>NI156</t>
+  </si>
+  <si>
+    <t>NI157</t>
+  </si>
+  <si>
+    <t>NI169</t>
+  </si>
+  <si>
+    <t>RP252</t>
+  </si>
+  <si>
+    <t>SH196</t>
+  </si>
+  <si>
+    <t>SL25</t>
+  </si>
+  <si>
+    <t>SL84</t>
+  </si>
+  <si>
+    <t>SN240</t>
+  </si>
+  <si>
+    <t>SN275</t>
   </si>
   <si>
     <t>AB123456_0_02</t>
@@ -71,6 +155,129 @@
   </si>
   <si>
     <t>AB123456_0_11</t>
+  </si>
+  <si>
+    <t>AB123456_0_12</t>
+  </si>
+  <si>
+    <t>AB123456_0_13</t>
+  </si>
+  <si>
+    <t>AB123456_0_14</t>
+  </si>
+  <si>
+    <t>AB123456_0_15</t>
+  </si>
+  <si>
+    <t>AB123456_0_16</t>
+  </si>
+  <si>
+    <t>AB123456_0_17</t>
+  </si>
+  <si>
+    <t>AB123456_0_18</t>
+  </si>
+  <si>
+    <t>AB123456_0_19</t>
+  </si>
+  <si>
+    <t>AB123456_0_20</t>
+  </si>
+  <si>
+    <t>AB123456_0_21</t>
+  </si>
+  <si>
+    <t>AB123456_0_22</t>
+  </si>
+  <si>
+    <t>AB123456_0_23</t>
+  </si>
+  <si>
+    <t>AB123456_0_24</t>
+  </si>
+  <si>
+    <t>AB123456_0_25</t>
+  </si>
+  <si>
+    <t>AB123456_0_26</t>
+  </si>
+  <si>
+    <t>AB123456_0_27</t>
+  </si>
+  <si>
+    <t>AB123456_0_28</t>
+  </si>
+  <si>
+    <t>AB123456_0_29</t>
+  </si>
+  <si>
+    <t>AB123456_0_30</t>
+  </si>
+  <si>
+    <t>AB123456_0_31</t>
+  </si>
+  <si>
+    <t>AB123456_0_32</t>
+  </si>
+  <si>
+    <t>AB123456_0_33</t>
+  </si>
+  <si>
+    <t>AB123456_0_34</t>
+  </si>
+  <si>
+    <t>AB123456_0_35</t>
+  </si>
+  <si>
+    <t>AB123456_0_36</t>
+  </si>
+  <si>
+    <t>AB123456_0_37</t>
+  </si>
+  <si>
+    <t>AB123456_0_38</t>
+  </si>
+  <si>
+    <t>AB123456_0_39</t>
+  </si>
+  <si>
+    <t>AB123456_0_40</t>
+  </si>
+  <si>
+    <t>AB123456_0_41</t>
+  </si>
+  <si>
+    <t>AB123456_0_42</t>
+  </si>
+  <si>
+    <t>AB123456_0_43</t>
+  </si>
+  <si>
+    <t>AB123456_0_44</t>
+  </si>
+  <si>
+    <t>AB123456_0_45</t>
+  </si>
+  <si>
+    <t>AB123456_0_46</t>
+  </si>
+  <si>
+    <t>AB123456_0_47</t>
+  </si>
+  <si>
+    <t>AB123456_0_48</t>
+  </si>
+  <si>
+    <t>AB123456_0_49</t>
+  </si>
+  <si>
+    <t>AB123456_0_50</t>
+  </si>
+  <si>
+    <t>uk_geb</t>
+  </si>
+  <si>
+    <t>hk_geb</t>
   </si>
 </sst>
 </file>
@@ -472,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,18 +704,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>300</v>
@@ -525,10 +732,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -545,10 +752,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>260</v>
@@ -565,10 +772,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -585,10 +792,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -605,10 +812,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>450</v>
@@ -625,10 +832,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8">
         <v>573</v>
@@ -645,10 +852,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>254</v>
@@ -665,9 +872,9 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
@@ -685,9 +892,9 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
@@ -705,9 +912,9 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
@@ -721,6 +928,786 @@
       </c>
       <c r="F12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>892</v>
+      </c>
+      <c r="D13">
+        <v>24582.384399999999</v>
+      </c>
+      <c r="E13">
+        <v>4.05</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>1533.753868</v>
+      </c>
+      <c r="E14">
+        <v>1.02</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>6340.3163520000007</v>
+      </c>
+      <c r="E15">
+        <v>1.02</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>226</v>
+      </c>
+      <c r="D16">
+        <v>1795.081154</v>
+      </c>
+      <c r="E16">
+        <v>9.02</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>512</v>
+      </c>
+      <c r="D17">
+        <v>17079.796149999998</v>
+      </c>
+      <c r="E17">
+        <v>1.02</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>461</v>
+      </c>
+      <c r="D18">
+        <v>10477.348120000001</v>
+      </c>
+      <c r="E18">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>256</v>
+      </c>
+      <c r="D19">
+        <v>1462.5350269999999</v>
+      </c>
+      <c r="E19">
+        <v>5.01</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>1524.709488</v>
+      </c>
+      <c r="E20">
+        <v>1.03</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>462.881259</v>
+      </c>
+      <c r="E21">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>1532.0976539999999</v>
+      </c>
+      <c r="E22">
+        <v>1.03</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+      <c r="D23">
+        <v>1850.160856</v>
+      </c>
+      <c r="E23">
+        <v>5.05</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>7656.4683199999999</v>
+      </c>
+      <c r="E24">
+        <v>3.02</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>1609.7501569999999</v>
+      </c>
+      <c r="E25">
+        <v>7.01</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>2437.7761559999999</v>
+      </c>
+      <c r="E26">
+        <v>6.02</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>1298.505085</v>
+      </c>
+      <c r="E27">
+        <v>6.1</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>400</v>
+      </c>
+      <c r="D28">
+        <v>5075.9865179999997</v>
+      </c>
+      <c r="E28">
+        <v>4.08</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>2505.5463679999998</v>
+      </c>
+      <c r="E29">
+        <v>4.03</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>104</v>
+      </c>
+      <c r="D30">
+        <v>3158.6311000000001</v>
+      </c>
+      <c r="E30">
+        <v>4.03</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>400.25578899999999</v>
+      </c>
+      <c r="E31">
+        <v>6.1</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>277</v>
+      </c>
+      <c r="D32">
+        <v>2137.985475</v>
+      </c>
+      <c r="E32">
+        <v>5.03</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
+      <c r="D33">
+        <v>282.13605000000001</v>
+      </c>
+      <c r="E33">
+        <v>5.03</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>3723.2698610000002</v>
+      </c>
+      <c r="E34">
+        <v>1.05</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>110.27482500000001</v>
+      </c>
+      <c r="E35">
+        <v>7.08</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>519.32941629999993</v>
+      </c>
+      <c r="E36">
+        <v>8.07</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>87.473722499999994</v>
+      </c>
+      <c r="E37">
+        <v>7.01</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>393.83629930000001</v>
+      </c>
+      <c r="E38">
+        <v>8.07</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>120</v>
+      </c>
+      <c r="D39">
+        <v>672.93481329999997</v>
+      </c>
+      <c r="E39">
+        <v>6.03</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="D40">
+        <v>1632.524932</v>
+      </c>
+      <c r="E40">
+        <v>6.04</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>3238.1181150000002</v>
+      </c>
+      <c r="E41">
+        <v>6.14</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>18996.671859999999</v>
+      </c>
+      <c r="E42">
+        <v>2.02</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>300</v>
+      </c>
+      <c r="D43">
+        <v>7023.2553449999996</v>
+      </c>
+      <c r="E43">
+        <v>5.01</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>261</v>
+      </c>
+      <c r="D44">
+        <v>1628.3839290000001</v>
+      </c>
+      <c r="E44">
+        <v>5.03</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>252</v>
+      </c>
+      <c r="D45">
+        <v>1332.3472489999999</v>
+      </c>
+      <c r="E45">
+        <v>5.03</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>2047.8747100000001</v>
+      </c>
+      <c r="E46">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>2050.6433489999999</v>
+      </c>
+      <c r="E47">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>120</v>
+      </c>
+      <c r="D48">
+        <v>7086.6225530000002</v>
+      </c>
+      <c r="E48">
+        <v>8.02</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>543.11005299999999</v>
+      </c>
+      <c r="E49">
+        <v>1.02</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>250</v>
+      </c>
+      <c r="D50">
+        <v>11272.311320000001</v>
+      </c>
+      <c r="E50">
+        <v>1.02</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>120</v>
+      </c>
+      <c r="D51">
+        <v>1393.288994</v>
+      </c>
+      <c r="E51">
+        <v>4.01</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data_preprocessing/tiefenerhebung/TE_data/DB_BE_q25_1_imputiert_Auszug.xlsx
+++ b/data_preprocessing/tiefenerhebung/TE_data/DB_BE_q25_1_imputiert_Auszug.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\TE_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\DIBS---Dynamic-ISO-Building-Simulator-master\data_preprocessing\tiefenerhebung\TE_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090699BE-5314-4BB9-8421-815403CC0B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E997D591-D66B-400D-A723-EF3DC69E0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32175" yWindow="4125" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>scr_gebaeude_id</t>
   </si>
@@ -67,63 +67,6 @@
     <t>BW489</t>
   </si>
   <si>
-    <t>HH57</t>
-  </si>
-  <si>
-    <t>MV30</t>
-  </si>
-  <si>
-    <t>MV44</t>
-  </si>
-  <si>
-    <t>MV68</t>
-  </si>
-  <si>
-    <t>NI80</t>
-  </si>
-  <si>
-    <t>NI58</t>
-  </si>
-  <si>
-    <t>NI57</t>
-  </si>
-  <si>
-    <t>NI43</t>
-  </si>
-  <si>
-    <t>NI64</t>
-  </si>
-  <si>
-    <t>NI92</t>
-  </si>
-  <si>
-    <t>NI156</t>
-  </si>
-  <si>
-    <t>NI157</t>
-  </si>
-  <si>
-    <t>NI169</t>
-  </si>
-  <si>
-    <t>RP252</t>
-  </si>
-  <si>
-    <t>SH196</t>
-  </si>
-  <si>
-    <t>SL25</t>
-  </si>
-  <si>
-    <t>SL84</t>
-  </si>
-  <si>
-    <t>SN240</t>
-  </si>
-  <si>
-    <t>SN275</t>
-  </si>
-  <si>
     <t>AB123456_0_02</t>
   </si>
   <si>
@@ -182,96 +125,6 @@
   </si>
   <si>
     <t>AB123456_0_20</t>
-  </si>
-  <si>
-    <t>AB123456_0_21</t>
-  </si>
-  <si>
-    <t>AB123456_0_22</t>
-  </si>
-  <si>
-    <t>AB123456_0_23</t>
-  </si>
-  <si>
-    <t>AB123456_0_24</t>
-  </si>
-  <si>
-    <t>AB123456_0_25</t>
-  </si>
-  <si>
-    <t>AB123456_0_26</t>
-  </si>
-  <si>
-    <t>AB123456_0_27</t>
-  </si>
-  <si>
-    <t>AB123456_0_28</t>
-  </si>
-  <si>
-    <t>AB123456_0_29</t>
-  </si>
-  <si>
-    <t>AB123456_0_30</t>
-  </si>
-  <si>
-    <t>AB123456_0_31</t>
-  </si>
-  <si>
-    <t>AB123456_0_32</t>
-  </si>
-  <si>
-    <t>AB123456_0_33</t>
-  </si>
-  <si>
-    <t>AB123456_0_34</t>
-  </si>
-  <si>
-    <t>AB123456_0_35</t>
-  </si>
-  <si>
-    <t>AB123456_0_36</t>
-  </si>
-  <si>
-    <t>AB123456_0_37</t>
-  </si>
-  <si>
-    <t>AB123456_0_38</t>
-  </si>
-  <si>
-    <t>AB123456_0_39</t>
-  </si>
-  <si>
-    <t>AB123456_0_40</t>
-  </si>
-  <si>
-    <t>AB123456_0_41</t>
-  </si>
-  <si>
-    <t>AB123456_0_42</t>
-  </si>
-  <si>
-    <t>AB123456_0_43</t>
-  </si>
-  <si>
-    <t>AB123456_0_44</t>
-  </si>
-  <si>
-    <t>AB123456_0_45</t>
-  </si>
-  <si>
-    <t>AB123456_0_46</t>
-  </si>
-  <si>
-    <t>AB123456_0_47</t>
-  </si>
-  <si>
-    <t>AB123456_0_48</t>
-  </si>
-  <si>
-    <t>AB123456_0_49</t>
-  </si>
-  <si>
-    <t>AB123456_0_50</t>
   </si>
   <si>
     <t>uk_geb</t>
@@ -679,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A22" sqref="A22:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,15 +557,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -732,7 +585,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -752,7 +605,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -772,7 +625,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -792,7 +645,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -812,7 +665,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -832,7 +685,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -852,7 +705,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -872,7 +725,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -892,7 +745,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -912,7 +765,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -932,7 +785,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -952,7 +805,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -972,7 +825,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -992,7 +845,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1012,7 +865,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1032,7 +885,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1052,7 +905,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1072,7 +925,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -1092,7 +945,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1107,606 +960,6 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>1532.0976539999999</v>
-      </c>
-      <c r="E22">
-        <v>1.03</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>250</v>
-      </c>
-      <c r="D23">
-        <v>1850.160856</v>
-      </c>
-      <c r="E23">
-        <v>5.05</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>75</v>
-      </c>
-      <c r="D24">
-        <v>7656.4683199999999</v>
-      </c>
-      <c r="E24">
-        <v>3.02</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>1609.7501569999999</v>
-      </c>
-      <c r="E25">
-        <v>7.01</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>2437.7761559999999</v>
-      </c>
-      <c r="E26">
-        <v>6.02</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>1298.505085</v>
-      </c>
-      <c r="E27">
-        <v>6.1</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>400</v>
-      </c>
-      <c r="D28">
-        <v>5075.9865179999997</v>
-      </c>
-      <c r="E28">
-        <v>4.08</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29">
-        <v>65</v>
-      </c>
-      <c r="D29">
-        <v>2505.5463679999998</v>
-      </c>
-      <c r="E29">
-        <v>4.03</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>104</v>
-      </c>
-      <c r="D30">
-        <v>3158.6311000000001</v>
-      </c>
-      <c r="E30">
-        <v>4.03</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>400.25578899999999</v>
-      </c>
-      <c r="E31">
-        <v>6.1</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>277</v>
-      </c>
-      <c r="D32">
-        <v>2137.985475</v>
-      </c>
-      <c r="E32">
-        <v>5.03</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33">
-        <v>200</v>
-      </c>
-      <c r="D33">
-        <v>282.13605000000001</v>
-      </c>
-      <c r="E33">
-        <v>5.03</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>55</v>
-      </c>
-      <c r="D34">
-        <v>3723.2698610000002</v>
-      </c>
-      <c r="E34">
-        <v>1.05</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>110.27482500000001</v>
-      </c>
-      <c r="E35">
-        <v>7.08</v>
-      </c>
-      <c r="F35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <v>519.32941629999993</v>
-      </c>
-      <c r="E36">
-        <v>8.07</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>87.473722499999994</v>
-      </c>
-      <c r="E37">
-        <v>7.01</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38">
-        <v>70</v>
-      </c>
-      <c r="D38">
-        <v>393.83629930000001</v>
-      </c>
-      <c r="E38">
-        <v>8.07</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <v>120</v>
-      </c>
-      <c r="D39">
-        <v>672.93481329999997</v>
-      </c>
-      <c r="E39">
-        <v>6.03</v>
-      </c>
-      <c r="F39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
-      </c>
-      <c r="D40">
-        <v>1632.524932</v>
-      </c>
-      <c r="E40">
-        <v>6.04</v>
-      </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <v>3238.1181150000002</v>
-      </c>
-      <c r="E41">
-        <v>6.14</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42">
-        <v>1000</v>
-      </c>
-      <c r="D42">
-        <v>18996.671859999999</v>
-      </c>
-      <c r="E42">
-        <v>2.02</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43">
-        <v>300</v>
-      </c>
-      <c r="D43">
-        <v>7023.2553449999996</v>
-      </c>
-      <c r="E43">
-        <v>5.01</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44">
-        <v>261</v>
-      </c>
-      <c r="D44">
-        <v>1628.3839290000001</v>
-      </c>
-      <c r="E44">
-        <v>5.03</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45">
-        <v>252</v>
-      </c>
-      <c r="D45">
-        <v>1332.3472489999999</v>
-      </c>
-      <c r="E45">
-        <v>5.03</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46">
-        <v>25</v>
-      </c>
-      <c r="D46">
-        <v>2047.8747100000001</v>
-      </c>
-      <c r="E46">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>2050.6433489999999</v>
-      </c>
-      <c r="E47">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48">
-        <v>120</v>
-      </c>
-      <c r="D48">
-        <v>7086.6225530000002</v>
-      </c>
-      <c r="E48">
-        <v>8.02</v>
-      </c>
-      <c r="F48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>543.11005299999999</v>
-      </c>
-      <c r="E49">
-        <v>1.02</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50">
-        <v>250</v>
-      </c>
-      <c r="D50">
-        <v>11272.311320000001</v>
-      </c>
-      <c r="E50">
-        <v>1.02</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51">
-        <v>120</v>
-      </c>
-      <c r="D51">
-        <v>1393.288994</v>
-      </c>
-      <c r="E51">
-        <v>4.01</v>
-      </c>
-      <c r="F51">
         <v>4</v>
       </c>
     </row>
